--- a/BalanceSheet/ROST_bal.xlsx
+++ b/BalanceSheet/ROST_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>121408000.0</v>
+        <v>1509000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-512407000.0</v>
+        <v>1630000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>639280000.0</v>
+        <v>1118000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>75076000.0</v>
+        <v>1757000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>336457000.0</v>
+        <v>1832000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2168796000.0</v>
@@ -1566,19 +1566,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-187737000.0</v>
+        <v>2257000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1416284000.0</v>
+        <v>2426000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>311208000.0</v>
+        <v>1010000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-600918000.0</v>
+        <v>706000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-191495000.0</v>
+        <v>1296000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1480205000.0</v>
@@ -2578,19 +2578,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-13162000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-20527000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-7594000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>13471000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>8939000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>140740000.0</v>
